--- a/data_quarter/zb/建筑业/建筑业企业费用情况.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业费用情况.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,46 @@
           <t>建筑业企业销售费用_累计值</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业劳动、失业保险费</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业工会经费</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业差旅费</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业税金</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业管理费用</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业财务费用</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业销售费用</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -491,11 +526,26 @@
         <v>42.92</v>
       </c>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="M2" t="n">
+        <v>412.44</v>
+      </c>
+      <c r="N2" t="n">
+        <v>42.92</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -513,55 +563,100 @@
         <v>20.5</v>
       </c>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="M3" t="n">
+        <v>194.42</v>
+      </c>
+      <c r="N3" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.53</v>
+        <v>54.17</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>24.84</v>
+        <v>14.74</v>
       </c>
       <c r="F4" t="n">
-        <v>749.16</v>
+        <v>458.03</v>
       </c>
       <c r="G4" t="n">
-        <v>78.27</v>
+        <v>49.08</v>
       </c>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>31.97</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="M4" t="n">
+        <v>263.61</v>
+      </c>
+      <c r="N4" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.17</v>
+        <v>87.53</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>14.74</v>
+        <v>24.84</v>
       </c>
       <c r="F5" t="n">
-        <v>458.03</v>
+        <v>749.16</v>
       </c>
       <c r="G5" t="n">
-        <v>49.08</v>
+        <v>78.27</v>
       </c>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>33.36</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>291.13</v>
+      </c>
+      <c r="N5" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -579,55 +674,100 @@
         <v>24.8</v>
       </c>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="M6" t="n">
+        <v>217.58</v>
+      </c>
+      <c r="N6" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.83</v>
+        <v>59.6</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>27.2</v>
+        <v>16.72</v>
       </c>
       <c r="F7" t="n">
-        <v>851.61</v>
+        <v>533.05</v>
       </c>
       <c r="G7" t="n">
-        <v>93.3</v>
+        <v>59.2</v>
       </c>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>36.22</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" t="n">
+        <v>315.4699999999999</v>
+      </c>
+      <c r="N7" t="n">
+        <v>34.40000000000001</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.6</v>
+        <v>94.83</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>16.72</v>
+        <v>27.2</v>
       </c>
       <c r="F8" t="n">
-        <v>533.05</v>
+        <v>851.61</v>
       </c>
       <c r="G8" t="n">
-        <v>59.2</v>
+        <v>93.3</v>
       </c>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>35.23</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="M8" t="n">
+        <v>318.5600000000001</v>
+      </c>
+      <c r="N8" t="n">
+        <v>34.09999999999999</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -649,63 +789,120 @@
         <v>31.87</v>
       </c>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>30.55</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="K9" t="n">
+        <v>30.55</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="M9" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.3</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>14.77</v>
+        <v>13.11</v>
       </c>
       <c r="D10" t="n">
-        <v>44.8</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
-        <v>36.9</v>
+        <v>23.32</v>
       </c>
       <c r="F10" t="n">
-        <v>985.27</v>
+        <v>618.39</v>
       </c>
       <c r="G10" t="n">
-        <v>119.31</v>
+        <v>74.67</v>
       </c>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>48.41</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.229999999999999</v>
+      </c>
+      <c r="K10" t="n">
+        <v>27</v>
+      </c>
+      <c r="L10" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>353.89</v>
+      </c>
+      <c r="N10" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.95999999999999</v>
+        <v>120.3</v>
       </c>
       <c r="C11" t="n">
-        <v>13.11</v>
+        <v>14.77</v>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>44.8</v>
       </c>
       <c r="E11" t="n">
-        <v>23.32</v>
+        <v>36.9</v>
       </c>
       <c r="F11" t="n">
-        <v>618.39</v>
+        <v>985.27</v>
       </c>
       <c r="G11" t="n">
-        <v>74.67</v>
+        <v>119.31</v>
       </c>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K11" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="M11" t="n">
+        <v>366.88</v>
+      </c>
+      <c r="N11" t="n">
+        <v>44.64</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -727,63 +924,120 @@
         <v>36.60791</v>
       </c>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>37.24576</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="L12" t="n">
+        <v>191.30814</v>
+      </c>
+      <c r="M12" t="n">
+        <v>294.44679</v>
+      </c>
+      <c r="N12" t="n">
+        <v>36.60791</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.13883</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>16.02</v>
+        <v>12.14</v>
       </c>
       <c r="D13" t="n">
-        <v>55.5</v>
+        <v>33.76</v>
       </c>
       <c r="E13" t="n">
-        <v>975.6457799999999</v>
+        <v>26.69</v>
       </c>
       <c r="F13" t="n">
-        <v>1118.037</v>
+        <v>699.45</v>
       </c>
       <c r="G13" t="n">
-        <v>153.60277</v>
+        <v>92.53</v>
       </c>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>52.43424000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7.800000000000001</v>
+      </c>
+      <c r="K13" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="M13" t="n">
+        <v>405.00321</v>
+      </c>
+      <c r="N13" t="n">
+        <v>55.92209</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.68000000000001</v>
+        <v>153.13883</v>
       </c>
       <c r="C14" t="n">
-        <v>12.14</v>
+        <v>16.02</v>
       </c>
       <c r="D14" t="n">
-        <v>33.76</v>
+        <v>55.5</v>
       </c>
       <c r="E14" t="n">
-        <v>26.69</v>
+        <v>975.6457799999999</v>
       </c>
       <c r="F14" t="n">
-        <v>699.45</v>
+        <v>1118.037</v>
       </c>
       <c r="G14" t="n">
-        <v>92.53</v>
+        <v>153.60277</v>
       </c>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>63.45883000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.879999999999999</v>
+      </c>
+      <c r="K14" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="L14" t="n">
+        <v>948.9557799999999</v>
+      </c>
+      <c r="M14" t="n">
+        <v>418.587</v>
+      </c>
+      <c r="N14" t="n">
+        <v>61.07276999999999</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -805,63 +1059,120 @@
         <v>52.05</v>
       </c>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>45.32</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="K15" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="L15" t="n">
+        <v>285.08</v>
+      </c>
+      <c r="M15" t="n">
+        <v>345.73</v>
+      </c>
+      <c r="N15" t="n">
+        <v>52.05</v>
+      </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.71</v>
+        <v>108.2</v>
       </c>
       <c r="C16" t="n">
-        <v>22.57</v>
+        <v>14.52</v>
       </c>
       <c r="D16" t="n">
-        <v>69.68000000000001</v>
+        <v>42.62</v>
       </c>
       <c r="E16" t="n">
-        <v>52.6</v>
+        <v>32.47</v>
       </c>
       <c r="F16" t="n">
-        <v>1263.84</v>
+        <v>818.37</v>
       </c>
       <c r="G16" t="n">
-        <v>224.2</v>
+        <v>133.42</v>
       </c>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>62.88</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="K16" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="L16" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="M16" t="n">
+        <v>472.64</v>
+      </c>
+      <c r="N16" t="n">
+        <v>81.36999999999999</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>108.2</v>
+        <v>185.71</v>
       </c>
       <c r="C17" t="n">
-        <v>14.52</v>
+        <v>22.57</v>
       </c>
       <c r="D17" t="n">
-        <v>42.62</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>32.47</v>
+        <v>52.6</v>
       </c>
       <c r="F17" t="n">
-        <v>818.37</v>
+        <v>1263.84</v>
       </c>
       <c r="G17" t="n">
-        <v>133.42</v>
+        <v>224.2</v>
       </c>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>77.51000000000001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="K17" t="n">
+        <v>27.06000000000001</v>
+      </c>
+      <c r="L17" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="M17" t="n">
+        <v>445.4699999999999</v>
+      </c>
+      <c r="N17" t="n">
+        <v>90.78</v>
+      </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -883,63 +1194,120 @@
         <v>63.54</v>
       </c>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>59.36</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="K18" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>391.82</v>
+      </c>
+      <c r="N18" t="n">
+        <v>63.54</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>215.2</v>
+        <v>135.5</v>
       </c>
       <c r="C19" t="n">
-        <v>20.7</v>
+        <v>12.2</v>
       </c>
       <c r="D19" t="n">
-        <v>82.8</v>
+        <v>49.2</v>
       </c>
       <c r="E19" t="n">
-        <v>63.1</v>
+        <v>38.2</v>
       </c>
       <c r="F19" t="n">
-        <v>1435.6</v>
+        <v>906.2</v>
       </c>
       <c r="G19" t="n">
-        <v>227.4</v>
+        <v>138.6</v>
       </c>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>76.14</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6.569999999999999</v>
+      </c>
+      <c r="K19" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="L19" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="M19" t="n">
+        <v>514.3800000000001</v>
+      </c>
+      <c r="N19" t="n">
+        <v>75.06</v>
+      </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>135.5</v>
+        <v>215.2</v>
       </c>
       <c r="C20" t="n">
-        <v>12.2</v>
+        <v>20.7</v>
       </c>
       <c r="D20" t="n">
-        <v>49.2</v>
+        <v>82.8</v>
       </c>
       <c r="E20" t="n">
-        <v>38.2</v>
+        <v>63.1</v>
       </c>
       <c r="F20" t="n">
-        <v>906.2</v>
+        <v>1435.6</v>
       </c>
       <c r="G20" t="n">
-        <v>138.6</v>
+        <v>227.4</v>
       </c>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>79.69999999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>33.59999999999999</v>
+      </c>
+      <c r="L20" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="M20" t="n">
+        <v>529.3999999999999</v>
+      </c>
+      <c r="N20" t="n">
+        <v>88.80000000000001</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -961,63 +1329,120 @@
         <v>71.7</v>
       </c>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>471.7</v>
+      </c>
+      <c r="N21" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>236.1</v>
+        <v>144.8</v>
       </c>
       <c r="C22" t="n">
-        <v>25.4</v>
+        <v>15.6</v>
       </c>
       <c r="D22" t="n">
-        <v>99.18000000000001</v>
+        <v>59.5</v>
       </c>
       <c r="E22" t="n">
-        <v>77.01000000000001</v>
+        <v>45.5</v>
       </c>
       <c r="F22" t="n">
-        <v>1730.4</v>
+        <v>1073.9</v>
       </c>
       <c r="G22" t="n">
-        <v>267.84</v>
+        <v>164.3</v>
       </c>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>88.30000000000001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K22" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>27</v>
+      </c>
+      <c r="M22" t="n">
+        <v>602.2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>92.60000000000001</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>144.8</v>
+        <v>236.1</v>
       </c>
       <c r="C23" t="n">
-        <v>15.6</v>
+        <v>25.4</v>
       </c>
       <c r="D23" t="n">
-        <v>59.5</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>45.5</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>1073.9</v>
+        <v>1730.4</v>
       </c>
       <c r="G23" t="n">
-        <v>164.3</v>
+        <v>267.84</v>
       </c>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>91.29999999999998</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9.799999999999999</v>
+      </c>
+      <c r="K23" t="n">
+        <v>39.68000000000001</v>
+      </c>
+      <c r="L23" t="n">
+        <v>31.51000000000001</v>
+      </c>
+      <c r="M23" t="n">
+        <v>656.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>103.54</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1039,63 +1464,120 @@
         <v>98.08</v>
       </c>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>34.96</v>
+      </c>
+      <c r="J24" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="K24" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="L24" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="M24" t="n">
+        <v>559.38</v>
+      </c>
+      <c r="N24" t="n">
+        <v>98.08</v>
+      </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133.08</v>
+        <v>90.92</v>
       </c>
       <c r="C25" t="n">
-        <v>28.11</v>
+        <v>17.62</v>
       </c>
       <c r="D25" t="n">
-        <v>113.38</v>
+        <v>69.89</v>
       </c>
       <c r="E25" t="n">
-        <v>90.95999999999999</v>
+        <v>55.94</v>
       </c>
       <c r="F25" t="n">
-        <v>2072.27</v>
+        <v>1308.04</v>
       </c>
       <c r="G25" t="n">
-        <v>385.62</v>
+        <v>235.15</v>
       </c>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>55.96</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="K25" t="n">
+        <v>40.82</v>
+      </c>
+      <c r="L25" t="n">
+        <v>34.37</v>
+      </c>
+      <c r="M25" t="n">
+        <v>748.66</v>
+      </c>
+      <c r="N25" t="n">
+        <v>137.07</v>
+      </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.92</v>
+        <v>133.08</v>
       </c>
       <c r="C26" t="n">
-        <v>17.62</v>
+        <v>28.11</v>
       </c>
       <c r="D26" t="n">
-        <v>69.89</v>
+        <v>113.38</v>
       </c>
       <c r="E26" t="n">
-        <v>55.94</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>1308.04</v>
+        <v>2072.27</v>
       </c>
       <c r="G26" t="n">
-        <v>235.15</v>
+        <v>385.62</v>
       </c>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>42.16000000000001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="K26" t="n">
+        <v>43.48999999999999</v>
+      </c>
+      <c r="L26" t="n">
+        <v>35.02</v>
+      </c>
+      <c r="M26" t="n">
+        <v>764.23</v>
+      </c>
+      <c r="N26" t="n">
+        <v>150.47</v>
+      </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1113,55 +1595,100 @@
       <c r="H27" t="n">
         <v>106.9</v>
       </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>709.79</v>
+      </c>
+      <c r="N27" t="n">
+        <v>146.24</v>
+      </c>
+      <c r="O27" t="n">
+        <v>106.9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>118.44</v>
+        <v>69.67</v>
       </c>
       <c r="F28" t="n">
-        <v>2687.14</v>
+        <v>1598.35</v>
       </c>
       <c r="G28" t="n">
-        <v>565.52</v>
+        <v>340.27</v>
       </c>
       <c r="H28" t="n">
-        <v>367.4</v>
+        <v>224.3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>41.27</v>
+      </c>
+      <c r="M28" t="n">
+        <v>888.5599999999999</v>
+      </c>
+      <c r="N28" t="n">
+        <v>194.03</v>
+      </c>
+      <c r="O28" t="n">
+        <v>117.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>69.67</v>
+        <v>118.44</v>
       </c>
       <c r="F29" t="n">
-        <v>1598.35</v>
+        <v>2687.14</v>
       </c>
       <c r="G29" t="n">
-        <v>340.27</v>
+        <v>565.52</v>
       </c>
       <c r="H29" t="n">
-        <v>224.3</v>
+        <v>367.4</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>48.77</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1088.79</v>
+      </c>
+      <c r="N29" t="n">
+        <v>225.25</v>
+      </c>
+      <c r="O29" t="n">
+        <v>143.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1179,55 +1706,100 @@
       <c r="H30" t="n">
         <v>127</v>
       </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="M30" t="n">
+        <v>858.28</v>
+      </c>
+      <c r="N30" t="n">
+        <v>190.67</v>
+      </c>
+      <c r="O30" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>131.73</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>3015.18</v>
+        <v>1871.94</v>
       </c>
       <c r="G31" t="n">
-        <v>708.26</v>
+        <v>440.89</v>
       </c>
       <c r="H31" t="n">
-        <v>400.27</v>
+        <v>245.04</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>44.43000000000001</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1013.66</v>
+      </c>
+      <c r="N31" t="n">
+        <v>250.22</v>
+      </c>
+      <c r="O31" t="n">
+        <v>118.04</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>76.65000000000001</v>
+        <v>131.73</v>
       </c>
       <c r="F32" t="n">
-        <v>1871.94</v>
+        <v>3015.18</v>
       </c>
       <c r="G32" t="n">
-        <v>440.89</v>
+        <v>708.26</v>
       </c>
       <c r="H32" t="n">
-        <v>245.04</v>
+        <v>400.27</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>55.07999999999998</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1143.24</v>
+      </c>
+      <c r="N32" t="n">
+        <v>267.37</v>
+      </c>
+      <c r="O32" t="n">
+        <v>155.23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1245,55 +1817,100 @@
       <c r="H33" t="n">
         <v>125.21</v>
       </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="M33" t="n">
+        <v>953.6</v>
+      </c>
+      <c r="N33" t="n">
+        <v>241.92</v>
+      </c>
+      <c r="O33" t="n">
+        <v>125.21</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>134.82</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>3341.24</v>
+        <v>2064.03</v>
       </c>
       <c r="G34" t="n">
-        <v>865.51</v>
+        <v>569.48</v>
       </c>
       <c r="H34" t="n">
-        <v>423.86</v>
+        <v>261.12</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>49.42999999999999</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1110.43</v>
+      </c>
+      <c r="N34" t="n">
+        <v>327.5600000000001</v>
+      </c>
+      <c r="O34" t="n">
+        <v>135.91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>82.84999999999999</v>
+        <v>134.82</v>
       </c>
       <c r="F35" t="n">
-        <v>2064.03</v>
+        <v>3341.24</v>
       </c>
       <c r="G35" t="n">
-        <v>569.48</v>
+        <v>865.51</v>
       </c>
       <c r="H35" t="n">
-        <v>261.12</v>
+        <v>423.86</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>51.97</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1277.21</v>
+      </c>
+      <c r="N35" t="n">
+        <v>296.03</v>
+      </c>
+      <c r="O35" t="n">
+        <v>162.74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1311,55 +1928,100 @@
       <c r="H36" t="n">
         <v>125.66</v>
       </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>33.22</v>
+      </c>
+      <c r="M36" t="n">
+        <v>999.8200000000001</v>
+      </c>
+      <c r="N36" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="O36" t="n">
+        <v>125.66</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>136.58</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>3381.43</v>
+        <v>2175.61</v>
       </c>
       <c r="G37" t="n">
-        <v>867.22</v>
+        <v>587.79</v>
       </c>
       <c r="H37" t="n">
-        <v>409.24</v>
+        <v>264.85</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>47.43000000000001</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1175.79</v>
+      </c>
+      <c r="N37" t="n">
+        <v>327.09</v>
+      </c>
+      <c r="O37" t="n">
+        <v>139.19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>80.65000000000001</v>
+        <v>136.58</v>
       </c>
       <c r="F38" t="n">
-        <v>2175.61</v>
+        <v>3381.43</v>
       </c>
       <c r="G38" t="n">
-        <v>587.79</v>
+        <v>867.22</v>
       </c>
       <c r="H38" t="n">
-        <v>264.85</v>
+        <v>409.24</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>55.93000000000001</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1205.82</v>
+      </c>
+      <c r="N38" t="n">
+        <v>279.4300000000001</v>
+      </c>
+      <c r="O38" t="n">
+        <v>144.39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1377,11 +2039,26 @@
       <c r="H39" t="n">
         <v>133.48</v>
       </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1063.05</v>
+      </c>
+      <c r="N39" t="n">
+        <v>259.74</v>
+      </c>
+      <c r="O39" t="n">
+        <v>133.48</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1399,11 +2076,26 @@
       <c r="H40" t="n">
         <v>429.329999999999</v>
       </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>105.88</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2599.38</v>
+      </c>
+      <c r="N40" t="n">
+        <v>540.61</v>
+      </c>
+      <c r="O40" t="n">
+        <v>295.849999999999</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1419,6 +2111,19 @@
       <c r="H41" t="n">
         <v>142.72</v>
       </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1183.23</v>
+      </c>
+      <c r="N41" t="n">
+        <v>238.88</v>
+      </c>
+      <c r="O41" t="n">
+        <v>142.72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_quarter/zb/建筑业/建筑业企业费用情况.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业费用情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,41 +469,6 @@
           <t>建筑业企业销售费用_累计值</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业劳动、失业保险费</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业工会经费</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业差旅费</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业税金</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业管理费用</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业财务费用</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业销售费用</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -526,21 +491,6 @@
         <v>42.92</v>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="M2" t="n">
-        <v>412.44</v>
-      </c>
-      <c r="N2" t="n">
-        <v>42.92</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -563,95 +513,50 @@
         <v>20.5</v>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="M3" t="n">
-        <v>194.42</v>
-      </c>
-      <c r="N3" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.17</v>
+        <v>87.53</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>14.74</v>
+        <v>24.84</v>
       </c>
       <c r="F4" t="n">
-        <v>458.03</v>
+        <v>749.16</v>
       </c>
       <c r="G4" t="n">
-        <v>49.08</v>
+        <v>78.27</v>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>31.97</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="M4" t="n">
-        <v>263.61</v>
-      </c>
-      <c r="N4" t="n">
-        <v>28.58</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.53</v>
+        <v>54.17</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>24.84</v>
+        <v>14.74</v>
       </c>
       <c r="F5" t="n">
-        <v>749.16</v>
+        <v>458.03</v>
       </c>
       <c r="G5" t="n">
-        <v>78.27</v>
+        <v>49.08</v>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>33.36</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>291.13</v>
-      </c>
-      <c r="N5" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -674,95 +579,50 @@
         <v>24.8</v>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>23.38</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="M6" t="n">
-        <v>217.58</v>
-      </c>
-      <c r="N6" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.6</v>
+        <v>94.83</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>16.72</v>
+        <v>27.2</v>
       </c>
       <c r="F7" t="n">
-        <v>533.05</v>
+        <v>851.61</v>
       </c>
       <c r="G7" t="n">
-        <v>59.2</v>
+        <v>93.3</v>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>36.22</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>10</v>
-      </c>
-      <c r="M7" t="n">
-        <v>315.4699999999999</v>
-      </c>
-      <c r="N7" t="n">
-        <v>34.40000000000001</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.83</v>
+        <v>59.6</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>27.2</v>
+        <v>16.72</v>
       </c>
       <c r="F8" t="n">
-        <v>851.61</v>
+        <v>533.05</v>
       </c>
       <c r="G8" t="n">
-        <v>93.3</v>
+        <v>59.2</v>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>35.23</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="M8" t="n">
-        <v>318.5600000000001</v>
-      </c>
-      <c r="N8" t="n">
-        <v>34.09999999999999</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -789,115 +649,58 @@
         <v>31.87</v>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>30.55</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="K9" t="n">
-        <v>30.55</v>
-      </c>
-      <c r="L9" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="M9" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="N9" t="n">
-        <v>31.87</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.95999999999999</v>
+        <v>120.3</v>
       </c>
       <c r="C10" t="n">
-        <v>13.11</v>
+        <v>14.77</v>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>44.8</v>
       </c>
       <c r="E10" t="n">
-        <v>23.32</v>
+        <v>36.9</v>
       </c>
       <c r="F10" t="n">
-        <v>618.39</v>
+        <v>985.27</v>
       </c>
       <c r="G10" t="n">
-        <v>74.67</v>
+        <v>119.31</v>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>48.41</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.229999999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>27</v>
-      </c>
-      <c r="L10" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>353.89</v>
-      </c>
-      <c r="N10" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>120.3</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>14.77</v>
+        <v>13.11</v>
       </c>
       <c r="D11" t="n">
-        <v>44.8</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
-        <v>36.9</v>
+        <v>23.32</v>
       </c>
       <c r="F11" t="n">
-        <v>985.27</v>
+        <v>618.39</v>
       </c>
       <c r="G11" t="n">
-        <v>119.31</v>
+        <v>74.67</v>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="K11" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="L11" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="M11" t="n">
-        <v>366.88</v>
-      </c>
-      <c r="N11" t="n">
-        <v>44.64</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -924,115 +727,58 @@
         <v>36.60791</v>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
-        <v>37.24576</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="K12" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="L12" t="n">
-        <v>191.30814</v>
-      </c>
-      <c r="M12" t="n">
-        <v>294.44679</v>
-      </c>
-      <c r="N12" t="n">
-        <v>36.60791</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.68000000000001</v>
+        <v>153.13883</v>
       </c>
       <c r="C13" t="n">
-        <v>12.14</v>
+        <v>16.02</v>
       </c>
       <c r="D13" t="n">
-        <v>33.76</v>
+        <v>55.5</v>
       </c>
       <c r="E13" t="n">
-        <v>26.69</v>
+        <v>975.6457799999999</v>
       </c>
       <c r="F13" t="n">
-        <v>699.45</v>
+        <v>1118.037</v>
       </c>
       <c r="G13" t="n">
-        <v>92.53</v>
+        <v>153.60277</v>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
-        <v>52.43424000000001</v>
-      </c>
-      <c r="J13" t="n">
-        <v>7.800000000000001</v>
-      </c>
-      <c r="K13" t="n">
-        <v>19.38</v>
-      </c>
-      <c r="L13" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="M13" t="n">
-        <v>405.00321</v>
-      </c>
-      <c r="N13" t="n">
-        <v>55.92209</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>153.13883</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>16.02</v>
+        <v>12.14</v>
       </c>
       <c r="D14" t="n">
-        <v>55.5</v>
+        <v>33.76</v>
       </c>
       <c r="E14" t="n">
-        <v>975.6457799999999</v>
+        <v>26.69</v>
       </c>
       <c r="F14" t="n">
-        <v>1118.037</v>
+        <v>699.45</v>
       </c>
       <c r="G14" t="n">
-        <v>153.60277</v>
+        <v>92.53</v>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>63.45883000000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.879999999999999</v>
-      </c>
-      <c r="K14" t="n">
-        <v>21.74</v>
-      </c>
-      <c r="L14" t="n">
-        <v>948.9557799999999</v>
-      </c>
-      <c r="M14" t="n">
-        <v>418.587</v>
-      </c>
-      <c r="N14" t="n">
-        <v>61.07276999999999</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1059,115 +805,58 @@
         <v>52.05</v>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>45.32</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="K15" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="L15" t="n">
-        <v>285.08</v>
-      </c>
-      <c r="M15" t="n">
-        <v>345.73</v>
-      </c>
-      <c r="N15" t="n">
-        <v>52.05</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.2</v>
+        <v>185.71</v>
       </c>
       <c r="C16" t="n">
-        <v>14.52</v>
+        <v>22.57</v>
       </c>
       <c r="D16" t="n">
-        <v>42.62</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>32.47</v>
+        <v>52.6</v>
       </c>
       <c r="F16" t="n">
-        <v>818.37</v>
+        <v>1263.84</v>
       </c>
       <c r="G16" t="n">
-        <v>133.42</v>
+        <v>224.2</v>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>62.88</v>
-      </c>
-      <c r="J16" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="K16" t="n">
-        <v>24.34</v>
-      </c>
-      <c r="L16" t="n">
-        <v>32.47</v>
-      </c>
-      <c r="M16" t="n">
-        <v>472.64</v>
-      </c>
-      <c r="N16" t="n">
-        <v>81.36999999999999</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>185.71</v>
+        <v>108.2</v>
       </c>
       <c r="C17" t="n">
-        <v>22.57</v>
+        <v>14.52</v>
       </c>
       <c r="D17" t="n">
-        <v>69.68000000000001</v>
+        <v>42.62</v>
       </c>
       <c r="E17" t="n">
-        <v>52.6</v>
+        <v>32.47</v>
       </c>
       <c r="F17" t="n">
-        <v>1263.84</v>
+        <v>818.37</v>
       </c>
       <c r="G17" t="n">
-        <v>224.2</v>
+        <v>133.42</v>
       </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>77.51000000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K17" t="n">
-        <v>27.06000000000001</v>
-      </c>
-      <c r="L17" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="M17" t="n">
-        <v>445.4699999999999</v>
-      </c>
-      <c r="N17" t="n">
-        <v>90.78</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1194,115 +883,58 @@
         <v>63.54</v>
       </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>59.36</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K18" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="L18" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>391.82</v>
-      </c>
-      <c r="N18" t="n">
-        <v>63.54</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.5</v>
+        <v>215.2</v>
       </c>
       <c r="C19" t="n">
-        <v>12.2</v>
+        <v>20.7</v>
       </c>
       <c r="D19" t="n">
-        <v>49.2</v>
+        <v>82.8</v>
       </c>
       <c r="E19" t="n">
-        <v>38.2</v>
+        <v>63.1</v>
       </c>
       <c r="F19" t="n">
-        <v>906.2</v>
+        <v>1435.6</v>
       </c>
       <c r="G19" t="n">
-        <v>138.6</v>
+        <v>227.4</v>
       </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>76.14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6.569999999999999</v>
-      </c>
-      <c r="K19" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="L19" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="M19" t="n">
-        <v>514.3800000000001</v>
-      </c>
-      <c r="N19" t="n">
-        <v>75.06</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>215.2</v>
+        <v>135.5</v>
       </c>
       <c r="C20" t="n">
-        <v>20.7</v>
+        <v>12.2</v>
       </c>
       <c r="D20" t="n">
-        <v>82.8</v>
+        <v>49.2</v>
       </c>
       <c r="E20" t="n">
-        <v>63.1</v>
+        <v>38.2</v>
       </c>
       <c r="F20" t="n">
-        <v>1435.6</v>
+        <v>906.2</v>
       </c>
       <c r="G20" t="n">
-        <v>227.4</v>
+        <v>138.6</v>
       </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>79.69999999999999</v>
-      </c>
-      <c r="J20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>33.59999999999999</v>
-      </c>
-      <c r="L20" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="M20" t="n">
-        <v>529.3999999999999</v>
-      </c>
-      <c r="N20" t="n">
-        <v>88.80000000000001</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1329,115 +961,58 @@
         <v>71.7</v>
       </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>471.7</v>
-      </c>
-      <c r="N21" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.8</v>
+        <v>236.1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.6</v>
+        <v>25.4</v>
       </c>
       <c r="D22" t="n">
-        <v>59.5</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>45.5</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>1073.9</v>
+        <v>1730.4</v>
       </c>
       <c r="G22" t="n">
-        <v>164.3</v>
+        <v>267.84</v>
       </c>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>88.30000000000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K22" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>27</v>
-      </c>
-      <c r="M22" t="n">
-        <v>602.2</v>
-      </c>
-      <c r="N22" t="n">
-        <v>92.60000000000001</v>
-      </c>
-      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>236.1</v>
+        <v>144.8</v>
       </c>
       <c r="C23" t="n">
-        <v>25.4</v>
+        <v>15.6</v>
       </c>
       <c r="D23" t="n">
-        <v>99.18000000000001</v>
+        <v>59.5</v>
       </c>
       <c r="E23" t="n">
-        <v>77.01000000000001</v>
+        <v>45.5</v>
       </c>
       <c r="F23" t="n">
-        <v>1730.4</v>
+        <v>1073.9</v>
       </c>
       <c r="G23" t="n">
-        <v>267.84</v>
+        <v>164.3</v>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="n">
-        <v>91.29999999999998</v>
-      </c>
-      <c r="J23" t="n">
-        <v>9.799999999999999</v>
-      </c>
-      <c r="K23" t="n">
-        <v>39.68000000000001</v>
-      </c>
-      <c r="L23" t="n">
-        <v>31.51000000000001</v>
-      </c>
-      <c r="M23" t="n">
-        <v>656.5</v>
-      </c>
-      <c r="N23" t="n">
-        <v>103.54</v>
-      </c>
-      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1464,115 +1039,58 @@
         <v>98.08</v>
       </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="n">
-        <v>34.96</v>
-      </c>
-      <c r="J24" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="K24" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="L24" t="n">
-        <v>21.57</v>
-      </c>
-      <c r="M24" t="n">
-        <v>559.38</v>
-      </c>
-      <c r="N24" t="n">
-        <v>98.08</v>
-      </c>
-      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.92</v>
+        <v>133.08</v>
       </c>
       <c r="C25" t="n">
-        <v>17.62</v>
+        <v>28.11</v>
       </c>
       <c r="D25" t="n">
-        <v>69.89</v>
+        <v>113.38</v>
       </c>
       <c r="E25" t="n">
-        <v>55.94</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>1308.04</v>
+        <v>2072.27</v>
       </c>
       <c r="G25" t="n">
-        <v>235.15</v>
+        <v>385.62</v>
       </c>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="n">
-        <v>55.96</v>
-      </c>
-      <c r="J25" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="K25" t="n">
-        <v>40.82</v>
-      </c>
-      <c r="L25" t="n">
-        <v>34.37</v>
-      </c>
-      <c r="M25" t="n">
-        <v>748.66</v>
-      </c>
-      <c r="N25" t="n">
-        <v>137.07</v>
-      </c>
-      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>133.08</v>
+        <v>90.92</v>
       </c>
       <c r="C26" t="n">
-        <v>28.11</v>
+        <v>17.62</v>
       </c>
       <c r="D26" t="n">
-        <v>113.38</v>
+        <v>69.89</v>
       </c>
       <c r="E26" t="n">
-        <v>90.95999999999999</v>
+        <v>55.94</v>
       </c>
       <c r="F26" t="n">
-        <v>2072.27</v>
+        <v>1308.04</v>
       </c>
       <c r="G26" t="n">
-        <v>385.62</v>
+        <v>235.15</v>
       </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="n">
-        <v>42.16000000000001</v>
-      </c>
-      <c r="J26" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="K26" t="n">
-        <v>43.48999999999999</v>
-      </c>
-      <c r="L26" t="n">
-        <v>35.02</v>
-      </c>
-      <c r="M26" t="n">
-        <v>764.23</v>
-      </c>
-      <c r="N26" t="n">
-        <v>150.47</v>
-      </c>
-      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1595,94 +1113,49 @@
       <c r="H27" t="n">
         <v>106.9</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="M27" t="n">
-        <v>709.79</v>
-      </c>
-      <c r="N27" t="n">
-        <v>146.24</v>
-      </c>
-      <c r="O27" t="n">
-        <v>106.9</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>69.67</v>
+        <v>118.44</v>
       </c>
       <c r="F28" t="n">
-        <v>1598.35</v>
+        <v>2687.14</v>
       </c>
       <c r="G28" t="n">
-        <v>340.27</v>
+        <v>565.52</v>
       </c>
       <c r="H28" t="n">
-        <v>224.3</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>41.27</v>
-      </c>
-      <c r="M28" t="n">
-        <v>888.5599999999999</v>
-      </c>
-      <c r="N28" t="n">
-        <v>194.03</v>
-      </c>
-      <c r="O28" t="n">
-        <v>117.4</v>
+        <v>367.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>118.44</v>
+        <v>69.67</v>
       </c>
       <c r="F29" t="n">
-        <v>2687.14</v>
+        <v>1598.35</v>
       </c>
       <c r="G29" t="n">
-        <v>565.52</v>
+        <v>340.27</v>
       </c>
       <c r="H29" t="n">
-        <v>367.4</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>48.77</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1088.79</v>
-      </c>
-      <c r="N29" t="n">
-        <v>225.25</v>
-      </c>
-      <c r="O29" t="n">
-        <v>143.1</v>
+        <v>224.3</v>
       </c>
     </row>
     <row r="30">
@@ -1706,94 +1179,49 @@
       <c r="H30" t="n">
         <v>127</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>32.22</v>
-      </c>
-      <c r="M30" t="n">
-        <v>858.28</v>
-      </c>
-      <c r="N30" t="n">
-        <v>190.67</v>
-      </c>
-      <c r="O30" t="n">
-        <v>127</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>76.65000000000001</v>
+        <v>131.73</v>
       </c>
       <c r="F31" t="n">
-        <v>1871.94</v>
+        <v>3015.18</v>
       </c>
       <c r="G31" t="n">
-        <v>440.89</v>
+        <v>708.26</v>
       </c>
       <c r="H31" t="n">
-        <v>245.04</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>44.43000000000001</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1013.66</v>
-      </c>
-      <c r="N31" t="n">
-        <v>250.22</v>
-      </c>
-      <c r="O31" t="n">
-        <v>118.04</v>
+        <v>400.27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>131.73</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>3015.18</v>
+        <v>1871.94</v>
       </c>
       <c r="G32" t="n">
-        <v>708.26</v>
+        <v>440.89</v>
       </c>
       <c r="H32" t="n">
-        <v>400.27</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>55.07999999999998</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1143.24</v>
-      </c>
-      <c r="N32" t="n">
-        <v>267.37</v>
-      </c>
-      <c r="O32" t="n">
-        <v>155.23</v>
+        <v>245.04</v>
       </c>
     </row>
     <row r="33">
@@ -1817,94 +1245,49 @@
       <c r="H33" t="n">
         <v>125.21</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="M33" t="n">
-        <v>953.6</v>
-      </c>
-      <c r="N33" t="n">
-        <v>241.92</v>
-      </c>
-      <c r="O33" t="n">
-        <v>125.21</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>82.84999999999999</v>
+        <v>134.82</v>
       </c>
       <c r="F34" t="n">
-        <v>2064.03</v>
+        <v>3341.24</v>
       </c>
       <c r="G34" t="n">
-        <v>569.48</v>
+        <v>865.51</v>
       </c>
       <c r="H34" t="n">
-        <v>261.12</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>49.42999999999999</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1110.43</v>
-      </c>
-      <c r="N34" t="n">
-        <v>327.5600000000001</v>
-      </c>
-      <c r="O34" t="n">
-        <v>135.91</v>
+        <v>423.86</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>134.82</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>3341.24</v>
+        <v>2064.03</v>
       </c>
       <c r="G35" t="n">
-        <v>865.51</v>
+        <v>569.48</v>
       </c>
       <c r="H35" t="n">
-        <v>423.86</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>51.97</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1277.21</v>
-      </c>
-      <c r="N35" t="n">
-        <v>296.03</v>
-      </c>
-      <c r="O35" t="n">
-        <v>162.74</v>
+        <v>261.12</v>
       </c>
     </row>
     <row r="36">
@@ -1928,94 +1311,49 @@
       <c r="H36" t="n">
         <v>125.66</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>33.22</v>
-      </c>
-      <c r="M36" t="n">
-        <v>999.8200000000001</v>
-      </c>
-      <c r="N36" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="O36" t="n">
-        <v>125.66</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>80.65000000000001</v>
+        <v>136.58</v>
       </c>
       <c r="F37" t="n">
-        <v>2175.61</v>
+        <v>3381.43</v>
       </c>
       <c r="G37" t="n">
-        <v>587.79</v>
+        <v>867.22</v>
       </c>
       <c r="H37" t="n">
-        <v>264.85</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>47.43000000000001</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1175.79</v>
-      </c>
-      <c r="N37" t="n">
-        <v>327.09</v>
-      </c>
-      <c r="O37" t="n">
-        <v>139.19</v>
+        <v>409.24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>136.58</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>3381.43</v>
+        <v>2175.61</v>
       </c>
       <c r="G38" t="n">
-        <v>867.22</v>
+        <v>587.79</v>
       </c>
       <c r="H38" t="n">
-        <v>409.24</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>55.93000000000001</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1205.82</v>
-      </c>
-      <c r="N38" t="n">
-        <v>279.4300000000001</v>
-      </c>
-      <c r="O38" t="n">
-        <v>144.39</v>
+        <v>264.85</v>
       </c>
     </row>
     <row r="39">
@@ -2039,21 +1377,6 @@
       <c r="H39" t="n">
         <v>133.48</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1063.05</v>
-      </c>
-      <c r="N39" t="n">
-        <v>259.74</v>
-      </c>
-      <c r="O39" t="n">
-        <v>133.48</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2075,21 +1398,6 @@
       </c>
       <c r="H40" t="n">
         <v>429.329999999999</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>105.88</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2599.38</v>
-      </c>
-      <c r="N40" t="n">
-        <v>540.61</v>
-      </c>
-      <c r="O40" t="n">
-        <v>295.849999999999</v>
       </c>
     </row>
     <row r="41">
@@ -2111,19 +1419,6 @@
       <c r="H41" t="n">
         <v>142.72</v>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1183.23</v>
-      </c>
-      <c r="N41" t="n">
-        <v>238.88</v>
-      </c>
-      <c r="O41" t="n">
-        <v>142.72</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
